--- a/teaching/traditional_assets/database/data/austria/austria_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/austria/austria_insurance_general.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.006149999999999999</v>
+        <v>-0.0122</v>
       </c>
       <c r="E2">
-        <v>-0.0269</v>
+        <v>-0.003500000000000003</v>
       </c>
       <c r="G2">
-        <v>0.0839325797773602</v>
+        <v>0.07608255766895992</v>
       </c>
       <c r="H2">
-        <v>0.0839325797773602</v>
+        <v>0.07608255766895992</v>
       </c>
       <c r="I2">
-        <v>0.06684807719711518</v>
+        <v>0.06304298696042929</v>
       </c>
       <c r="J2">
-        <v>0.05255846921875847</v>
+        <v>0.04840272087365585</v>
       </c>
       <c r="K2">
-        <v>582.9000000000001</v>
+        <v>516.7</v>
       </c>
       <c r="L2">
-        <v>0.03329316145098555</v>
+        <v>0.02715657470817325</v>
       </c>
       <c r="M2">
-        <v>177.5</v>
+        <v>62.1</v>
       </c>
       <c r="N2">
-        <v>0.02618573430700007</v>
+        <v>0.01097173144876325</v>
       </c>
       <c r="O2">
-        <v>0.3045119231429061</v>
+        <v>0.1201857944648732</v>
       </c>
       <c r="P2">
-        <v>177.5</v>
+        <v>62.1</v>
       </c>
       <c r="Q2">
-        <v>0.02618573430700007</v>
+        <v>0.01097173144876325</v>
       </c>
       <c r="R2">
-        <v>0.3045119231429061</v>
+        <v>0.1201857944648732</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2026.4</v>
+        <v>2485.2</v>
       </c>
       <c r="V2">
-        <v>0.2989451943645349</v>
+        <v>0.4390812720848056</v>
       </c>
       <c r="W2">
-        <v>0.06847807180535774</v>
+        <v>0.05531379304623442</v>
       </c>
       <c r="X2">
-        <v>0.05856554175836629</v>
+        <v>0.05550309912554552</v>
       </c>
       <c r="Y2">
-        <v>0.009912530046991455</v>
+        <v>-0.0001893060793110996</v>
       </c>
       <c r="Z2">
-        <v>1.886052019763982</v>
+        <v>1.942828260137033</v>
       </c>
       <c r="AA2">
-        <v>0.09636780147682952</v>
+        <v>0.08746185060957173</v>
       </c>
       <c r="AB2">
-        <v>0.04824992578873032</v>
+        <v>0.0428053462132216</v>
       </c>
       <c r="AC2">
-        <v>0.04811787568809921</v>
+        <v>0.04465650439635014</v>
       </c>
       <c r="AD2">
-        <v>2636.5</v>
+        <v>2818.2</v>
       </c>
       <c r="AE2">
-        <v>249.1358981259397</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2885.63589812594</v>
+        <v>2818.2</v>
       </c>
       <c r="AG2">
-        <v>859.2358981259401</v>
+        <v>333</v>
       </c>
       <c r="AH2">
-        <v>0.2985922309604028</v>
+        <v>0.3324054634238399</v>
       </c>
       <c r="AI2">
-        <v>0.234930469560312</v>
+        <v>0.2258191171403617</v>
       </c>
       <c r="AJ2">
-        <v>0.1124987705239676</v>
+        <v>0.05556482562990155</v>
       </c>
       <c r="AK2">
-        <v>0.08377447382433854</v>
+        <v>0.03331765835893023</v>
       </c>
       <c r="AL2">
-        <v>184.1</v>
+        <v>190.9</v>
       </c>
       <c r="AM2">
-        <v>184.1</v>
+        <v>190.9</v>
       </c>
       <c r="AN2">
-        <v>1.796825483367523</v>
+        <v>2.026461494211548</v>
       </c>
       <c r="AO2">
-        <v>6.350896252036937</v>
+        <v>6.283394447354635</v>
       </c>
       <c r="AP2">
-        <v>0.5855857985878513</v>
+        <v>0.2394477601208025</v>
       </c>
       <c r="AQ2">
-        <v>6.350896252036937</v>
+        <v>6.283394447354635</v>
       </c>
     </row>
     <row r="3">
@@ -725,28 +725,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0108</v>
+        <v>0.0273</v>
       </c>
       <c r="E3">
-        <v>-0.0398</v>
+        <v>0.117</v>
       </c>
       <c r="G3">
-        <v>0.08707659308249173</v>
+        <v>0.07995483688858422</v>
       </c>
       <c r="H3">
-        <v>0.08707659308249173</v>
+        <v>0.07995483688858422</v>
       </c>
       <c r="I3">
-        <v>0.06934976639756105</v>
+        <v>0.07278519295132868</v>
       </c>
       <c r="J3">
-        <v>0.05283672764079309</v>
+        <v>0.0532001803288512</v>
       </c>
       <c r="K3">
-        <v>314.6</v>
+        <v>328.5</v>
       </c>
       <c r="L3">
-        <v>0.0281169005273036</v>
+        <v>0.02649300375015122</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -770,73 +770,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1551.6</v>
+        <v>1849.5</v>
       </c>
       <c r="V3">
-        <v>0.4254572376538978</v>
+        <v>0.5678887251289609</v>
       </c>
       <c r="W3">
-        <v>0.05962511608513542</v>
+        <v>0.05933994472443505</v>
       </c>
       <c r="X3">
-        <v>0.0603824965589177</v>
+        <v>0.05638405988183222</v>
       </c>
       <c r="Y3">
-        <v>-0.0007573804737822792</v>
+        <v>0.002955884842602834</v>
       </c>
       <c r="Z3">
-        <v>1.974717363427514</v>
+        <v>2.221455828869341</v>
       </c>
       <c r="AA3">
-        <v>0.1043376034989646</v>
+        <v>0.1181818506884266</v>
       </c>
       <c r="AB3">
-        <v>0.04812720406451464</v>
+        <v>0.04279434891613403</v>
       </c>
       <c r="AC3">
-        <v>0.05621039943444994</v>
+        <v>0.07538750177229255</v>
       </c>
       <c r="AD3">
-        <v>1597.4</v>
+        <v>1717.9</v>
       </c>
       <c r="AE3">
-        <v>227.7273188884468</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1825.127318888447</v>
+        <v>1717.9</v>
       </c>
       <c r="AG3">
-        <v>273.5273188884471</v>
+        <v>-131.5999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.3335376840295439</v>
+        <v>0.3453273564235029</v>
       </c>
       <c r="AI3">
-        <v>0.2434013482121742</v>
+        <v>0.2243480077834224</v>
       </c>
       <c r="AJ3">
-        <v>0.06976977167019636</v>
+        <v>-0.04210930500447968</v>
       </c>
       <c r="AK3">
-        <v>0.04599550385794177</v>
+        <v>-0.02265918247873548</v>
       </c>
       <c r="AL3">
-        <v>125.8</v>
+        <v>127.5</v>
       </c>
       <c r="AM3">
-        <v>125.8</v>
+        <v>127.5</v>
       </c>
       <c r="AN3">
-        <v>1.626349012421096</v>
+        <v>1.695351820783578</v>
       </c>
       <c r="AO3">
-        <v>6.184419713831478</v>
+        <v>7.078431372549019</v>
       </c>
       <c r="AP3">
-        <v>0.2784843401429923</v>
+        <v>-0.1298726931806967</v>
       </c>
       <c r="AQ3">
-        <v>6.184419713831478</v>
+        <v>7.078431372549019</v>
       </c>
     </row>
     <row r="4">
@@ -856,46 +856,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0231</v>
+        <v>-0.0517</v>
       </c>
       <c r="E4">
-        <v>-0.014</v>
+        <v>-0.124</v>
       </c>
       <c r="G4">
-        <v>0.07836559003655583</v>
+        <v>0.06883751810719459</v>
       </c>
       <c r="H4">
-        <v>0.07836559003655583</v>
+        <v>0.06883751810719459</v>
       </c>
       <c r="I4">
-        <v>0.06241842733181963</v>
+        <v>0.04481530661516176</v>
       </c>
       <c r="J4">
-        <v>0.05059559791982564</v>
+        <v>0.03605956930455808</v>
       </c>
       <c r="K4">
-        <v>268.3</v>
+        <v>188.2</v>
       </c>
       <c r="L4">
-        <v>0.04245857796205156</v>
+        <v>0.02839811685176243</v>
       </c>
       <c r="M4">
-        <v>177.5</v>
+        <v>62.1</v>
       </c>
       <c r="N4">
-        <v>0.05668029122493294</v>
+        <v>0.02584054593874834</v>
       </c>
       <c r="O4">
-        <v>0.6615728661945584</v>
+        <v>0.3299681190223167</v>
       </c>
       <c r="P4">
-        <v>177.5</v>
+        <v>62.1</v>
       </c>
       <c r="Q4">
-        <v>0.05668029122493294</v>
+        <v>0.02584054593874834</v>
       </c>
       <c r="R4">
-        <v>0.6615728661945584</v>
+        <v>0.3299681190223167</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -904,73 +904,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>474.8</v>
+        <v>635.7</v>
       </c>
       <c r="V4">
-        <v>0.1516157874568911</v>
+        <v>0.2645223035952065</v>
       </c>
       <c r="W4">
-        <v>0.07733102752558006</v>
+        <v>0.05128764136803379</v>
       </c>
       <c r="X4">
-        <v>0.05674858695781487</v>
+        <v>0.05462213836925882</v>
       </c>
       <c r="Y4">
-        <v>0.02058244056776519</v>
+        <v>-0.003334497001225033</v>
       </c>
       <c r="Z4">
-        <v>1.74714803439562</v>
+        <v>1.573558742520657</v>
       </c>
       <c r="AA4">
-        <v>0.08839799945469447</v>
+        <v>0.0567418505307169</v>
       </c>
       <c r="AB4">
-        <v>0.048372647512946</v>
+        <v>0.04281634351030917</v>
       </c>
       <c r="AC4">
-        <v>0.04002535194174847</v>
+        <v>0.01392550702040773</v>
       </c>
       <c r="AD4">
-        <v>1039.1</v>
+        <v>1100.3</v>
       </c>
       <c r="AE4">
-        <v>21.40857923749291</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1060.508579237493</v>
+        <v>1100.3</v>
       </c>
       <c r="AG4">
-        <v>585.7085792374928</v>
+        <v>464.5999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.2529773643006141</v>
+        <v>0.3140573712002283</v>
       </c>
       <c r="AI4">
-        <v>0.2216546509791202</v>
+        <v>0.2281549371708207</v>
       </c>
       <c r="AJ4">
-        <v>0.1575625393352831</v>
+        <v>0.1620057186693633</v>
       </c>
       <c r="AK4">
-        <v>0.1359044511870733</v>
+        <v>0.1109651532159832</v>
       </c>
       <c r="AL4">
-        <v>58.3</v>
+        <v>63.4</v>
       </c>
       <c r="AM4">
-        <v>58.3</v>
+        <v>63.4</v>
       </c>
       <c r="AN4">
-        <v>2.14198841499866</v>
+        <v>2.915474297827239</v>
       </c>
       <c r="AO4">
-        <v>6.710120068610634</v>
+        <v>4.684542586750789</v>
       </c>
       <c r="AP4">
-        <v>1.207372718017548</v>
+        <v>1.23105458399576</v>
       </c>
       <c r="AQ4">
-        <v>6.710120068610634</v>
+        <v>4.684542586750789</v>
       </c>
     </row>
   </sheetData>
